--- a/TinhDiem.xlsx
+++ b/TinhDiem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\TTNT6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9033DC00-F2C6-4CEE-8691-CF772EA43728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF551DC7-6DAF-4127-8930-1BD1D7900AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FD30B0B8-354F-4D2B-B320-48D5BB453824}"/>
   </bookViews>
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9857AF-68FD-4C6D-A786-68E0151B4DAA}">
   <dimension ref="A1:B244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1357,7 @@
         <v>188</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1373,7 +1373,7 @@
         <v>190</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1381,7 +1381,7 @@
         <v>191</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>192</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
         <v>193</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>194</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>195</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>196</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
         <v>197</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1437,7 +1437,7 @@
         <v>198</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>199</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1453,7 +1453,7 @@
         <v>200</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
         <v>201</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>202</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
         <v>203</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1485,7 +1485,7 @@
         <v>204</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>205</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1925,7 +1925,7 @@
         <v>16</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
         <v>18</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>20</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,7 +1965,7 @@
         <v>21</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +1973,7 @@
         <v>22</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1981,7 +1981,7 @@
         <v>23</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
         <v>24</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1997,7 +1997,7 @@
         <v>25</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>26</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2013,7 +2013,7 @@
         <v>27</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
         <v>28</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>29</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2037,7 +2037,7 @@
         <v>30</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2045,7 +2045,7 @@
         <v>31</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
         <v>32</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
         <v>33</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2069,7 +2069,7 @@
         <v>34</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2085,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2093,7 +2093,7 @@
         <v>37</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2173,7 +2173,7 @@
         <v>78</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -2181,7 +2181,7 @@
         <v>77</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2189,7 +2189,7 @@
         <v>76</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -2197,7 +2197,7 @@
         <v>75</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -2205,7 +2205,7 @@
         <v>74</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
         <v>73</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
         <v>72</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>71</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -2237,7 +2237,7 @@
         <v>70</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -2653,7 +2653,7 @@
         <v>139</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -2661,7 +2661,7 @@
         <v>138</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -2669,7 +2669,7 @@
         <v>137</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
         <v>109</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -2901,7 +2901,7 @@
         <v>108</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,7 +2909,7 @@
         <v>107</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -2917,7 +2917,7 @@
         <v>106</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -2925,7 +2925,7 @@
         <v>105</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
         <v>104</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -2941,7 +2941,7 @@
         <v>103</v>
       </c>
       <c r="B224">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>102</v>
       </c>
       <c r="B225">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -2957,7 +2957,7 @@
         <v>101</v>
       </c>
       <c r="B226">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -2965,7 +2965,7 @@
         <v>100</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
         <v>99</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
         <v>98</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -2989,7 +2989,7 @@
         <v>97</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -2997,7 +2997,7 @@
         <v>96</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -3005,7 +3005,7 @@
         <v>95</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3013,7 +3013,7 @@
         <v>94</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -3021,7 +3021,7 @@
         <v>93</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -3029,7 +3029,7 @@
         <v>92</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>85</v>
       </c>
       <c r="B242">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -3093,7 +3093,7 @@
         <v>84</v>
       </c>
       <c r="B243">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -3101,7 +3101,7 @@
         <v>83</v>
       </c>
       <c r="B244">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
